--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Discretization</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>1_1-GridSize.py</t>
+  </si>
+  <si>
+    <t>1_3-ActInactCells</t>
+  </si>
+  <si>
+    <t>Act/Inact Cells(%)</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>Active/Inactive Cells</t>
   </si>
 </sst>
 </file>
@@ -415,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -527,6 +539,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Discretization</t>
   </si>
@@ -99,13 +99,31 @@
     <t>1_3-ActInactCells</t>
   </si>
   <si>
-    <t>Act/Inact Cells(%)</t>
-  </si>
-  <si>
     <t>1.3.</t>
   </si>
   <si>
     <t>Active/Inactive Cells</t>
+  </si>
+  <si>
+    <t>1_4-HydralicConductivities</t>
+  </si>
+  <si>
+    <t>1.4.</t>
+  </si>
+  <si>
+    <t>Hydralic Conductivities</t>
+  </si>
+  <si>
+    <t>% of Active Cells</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>indicator of same hor/ver cond (1)</t>
+  </si>
+  <si>
+    <t>indicator of different hor/ver cond (1)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -157,6 +175,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -446,8 +470,8 @@
     <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
@@ -541,10 +565,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -553,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -565,7 +589,55 @@
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Discretization</t>
   </si>
@@ -123,7 +123,22 @@
     <t>indicator of same hor/ver cond (1)</t>
   </si>
   <si>
-    <t>indicator of different hor/ver cond (1)</t>
+    <t>without storage capacities(1)</t>
+  </si>
+  <si>
+    <t>with storage capacities (2)</t>
+  </si>
+  <si>
+    <t>indicator of different hor/ver cond (2)</t>
+  </si>
+  <si>
+    <t>1_5-StorageCapacities</t>
+  </si>
+  <si>
+    <t>1.5.</t>
+  </si>
+  <si>
+    <t>Storage Capacities</t>
   </si>
 </sst>
 </file>
@@ -159,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -181,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -621,14 +639,57 @@
       <c r="C7" s="7"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="B6:B7"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Discretization</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>Storage Capacities</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>2_1-StressPeriodsNumber</t>
+  </si>
+  <si>
+    <t>Number of Stress Periods</t>
+  </si>
+  <si>
+    <t>obleo</t>
+  </si>
+  <si>
+    <t>Boundary Conditions</t>
+  </si>
+  <si>
+    <t>Number of stress periods</t>
+  </si>
+  <si>
+    <t>2.2.</t>
+  </si>
+  <si>
+    <t>Number of Time Steps</t>
+  </si>
+  <si>
+    <t>2_2-TimeStepsNumber</t>
+  </si>
+  <si>
+    <t>Number of time steps</t>
+  </si>
+  <si>
+    <t>2.3.</t>
+  </si>
+  <si>
+    <t>Lenght of Time Steps</t>
+  </si>
+  <si>
+    <t>2_3-TimeStepsLength</t>
+  </si>
+  <si>
+    <t>Lenghts os time steps</t>
   </si>
 </sst>
 </file>
@@ -162,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,35 +212,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,212 +538,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>50</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6">
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>100</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>100</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
@@ -690,13 +858,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Discretization</t>
   </si>
@@ -96,15 +96,9 @@
     <t>1_1-GridSize.py</t>
   </si>
   <si>
-    <t>1_3-ActInactCells</t>
-  </si>
-  <si>
     <t>1.3.</t>
   </si>
   <si>
-    <t>Active/Inactive Cells</t>
-  </si>
-  <si>
     <t>1_4-HydralicConductivities</t>
   </si>
   <si>
@@ -114,24 +108,6 @@
     <t>Hydralic Conductivities</t>
   </si>
   <si>
-    <t>% of Active Cells</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>indicator of same hor/ver cond (1)</t>
-  </si>
-  <si>
-    <t>without storage capacities(1)</t>
-  </si>
-  <si>
-    <t>with storage capacities (2)</t>
-  </si>
-  <si>
-    <t>indicator of different hor/ver cond (2)</t>
-  </si>
-  <si>
     <t>1_5-StorageCapacities</t>
   </si>
   <si>
@@ -181,18 +157,51 @@
   </si>
   <si>
     <t>Lenghts os time steps</t>
+  </si>
+  <si>
+    <t>Inactive/Active Cells</t>
+  </si>
+  <si>
+    <t>1_3-InactActCells</t>
+  </si>
+  <si>
+    <t>% of Inactive Cells</t>
+  </si>
+  <si>
+    <t>Value of hydralic conducivity</t>
+  </si>
+  <si>
+    <t>Value of storage capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +236,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,16 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +289,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,7 +592,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -557,293 +608,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="5">
-        <v>50</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="H11" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="G13" s="4">
         <v>100</v>
       </c>
-      <c r="H11" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>100</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="B6:B7"/>
@@ -851,13 +906,7 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Project\homework\performanceTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Discretization</t>
   </si>
@@ -172,13 +174,103 @@
   </si>
   <si>
     <t>Value of storage capacity</t>
+  </si>
+  <si>
+    <t>River Stage</t>
+  </si>
+  <si>
+    <t>2.5.</t>
+  </si>
+  <si>
+    <t>2.6.</t>
+  </si>
+  <si>
+    <t>2.4.</t>
+  </si>
+  <si>
+    <t>River Conductance</t>
+  </si>
+  <si>
+    <t>2_4-RiverStage</t>
+  </si>
+  <si>
+    <t>2_5-RiverConductance</t>
+  </si>
+  <si>
+    <t>Number Of Wells</t>
+  </si>
+  <si>
+    <t>2_6-WellsNumbers</t>
+  </si>
+  <si>
+    <t>Number of Wells</t>
+  </si>
+  <si>
+    <t>Pumping Rate</t>
+  </si>
+  <si>
+    <t>2_7-PumpingRates</t>
+  </si>
+  <si>
+    <t>Pumping Rates</t>
+  </si>
+  <si>
+    <t>Recharge Flux</t>
+  </si>
+  <si>
+    <t>2_8-RechargeData</t>
+  </si>
+  <si>
+    <t>2.7.</t>
+  </si>
+  <si>
+    <t>2.8.</t>
+  </si>
+  <si>
+    <t>2.9.</t>
+  </si>
+  <si>
+    <t>General Head Boundary</t>
+  </si>
+  <si>
+    <t>2_9-GHB</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>GHB-package index</t>
+  </si>
+  <si>
+    <t>BCF vs LPF</t>
+  </si>
+  <si>
+    <t>BCF(1) vs LPF(2)</t>
+  </si>
+  <si>
+    <t>3_1-Packages</t>
+  </si>
+  <si>
+    <t>3.1.</t>
+  </si>
+  <si>
+    <t>3.2.</t>
+  </si>
+  <si>
+    <t>laycon</t>
+  </si>
+  <si>
+    <t>Layer type</t>
+  </si>
+  <si>
+    <t>3_2-Laycon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,12 +297,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -266,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -284,9 +388,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -296,31 +427,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,21 +699,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
@@ -603,41 +721,41 @@
     <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
@@ -647,8 +765,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -673,8 +791,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -699,8 +817,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -725,83 +843,83 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="17">
         <v>100</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="17">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3"/>
@@ -811,8 +929,8 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -837,8 +955,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -863,8 +981,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -889,8 +1007,225 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="4">
+        <f>-3</f>
+        <v>-3</v>
+      </c>
+      <c r="G17" s="16">
+        <v>-30000000000</v>
+      </c>
+      <c r="H17" s="16">
+        <v>-3E+20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A8:A9"/>
@@ -899,14 +1234,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -415,11 +415,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,13 +844,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -870,9 +870,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="17"/>
       <c r="E7" s="21"/>
       <c r="F7" s="17"/>
@@ -880,13 +880,13 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -906,9 +906,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="17"/>
       <c r="E9" s="21"/>
       <c r="F9" s="17"/>
@@ -946,13 +946,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
         <v>100</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,14 +1102,13 @@
         <v>60</v>
       </c>
       <c r="F17" s="4">
-        <f>-3</f>
-        <v>-3</v>
+        <v>-100</v>
       </c>
       <c r="G17" s="16">
-        <v>-30000000000</v>
+        <v>-1000</v>
       </c>
       <c r="H17" s="16">
-        <v>-3E+20</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,13 +1128,13 @@
         <v>63</v>
       </c>
       <c r="F18" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,6 +1217,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="B6:B7"/>
@@ -1226,14 +1233,6 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Discretization</t>
   </si>
@@ -38,9 +38,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Base_example</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Layernumbers</t>
   </si>
   <si>
-    <t>lake</t>
-  </si>
-  <si>
     <t>Layers</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Number of Stress Periods</t>
   </si>
   <si>
-    <t>obleo</t>
-  </si>
-  <si>
     <t>Boundary Conditions</t>
   </si>
   <si>
@@ -264,6 +255,24 @@
   </si>
   <si>
     <t>3_2-Laycon</t>
+  </si>
+  <si>
+    <t>4.1.</t>
+  </si>
+  <si>
+    <t>Solvers</t>
+  </si>
+  <si>
+    <t>4_1-Solver</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2     |   3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4    |     5</t>
   </si>
 </sst>
 </file>
@@ -415,11 +424,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,36 +716,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G22" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>7</v>
@@ -747,493 +755,458 @@
       <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E6" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F6" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
       <c r="G6" s="17">
-        <v>100</v>
-      </c>
-      <c r="H6" s="17">
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
+    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
       </c>
       <c r="F8" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
+    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
+      <c r="E11" s="4">
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4">
         <v>100</v>
       </c>
-      <c r="H11" s="4">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G18" s="4">
         <v>100</v>
       </c>
-      <c r="H12" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>100</v>
-      </c>
-      <c r="H13" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>100</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>100</v>
-      </c>
-      <c r="H15" s="4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="4">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
+      <c r="F20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="4">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4">
-        <f>-3</f>
-        <v>-3</v>
-      </c>
-      <c r="G17" s="16">
-        <v>-30000000000</v>
-      </c>
-      <c r="H17" s="16">
-        <v>-3E+20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
+      <c r="F22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>

--- a/performanceTest/performance_tests_overview.xlsx
+++ b/performanceTest/performance_tests_overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>Discretization</t>
   </si>
@@ -273,13 +273,28 @@
   </si>
   <si>
     <t xml:space="preserve">   4    |     5</t>
+  </si>
+  <si>
+    <t>No influence</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Non-linear</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Discrete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,14 +314,22 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +345,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -387,17 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,32 +451,87 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="A1:G22"/>
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,466 +831,492 @@
     <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="24">
         <v>50</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="24">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="I5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="29">
         <v>0</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="29">
         <v>100</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="29">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="I6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="29">
         <v>0</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="I8" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="38"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="17">
         <v>50</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="17">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="14">
         <v>100</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="14">
         <v>100</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="14">
         <v>0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="14">
         <v>100</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="14">
         <v>100</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="37">
         <v>1000</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="37">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="14">
         <v>10</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="34">
         <v>0</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="34">
         <v>1</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="14">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="14">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="34">
         <v>1</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="34" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A8:A9"/>
@@ -1200,13 +1324,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
